--- a/aula05/graficos.xlsx
+++ b/aula05/graficos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\7SEMESTRE\SUPERCOMP\supercomputacao\aula05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44BBDCC9-AF08-42A9-8FEF-930C3E22B913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C710963-AF1E-4F3F-8718-20FCC0C9D548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{52A536DC-50C4-426B-A61C-53141CE1D792}"/>
+    <workbookView xWindow="504" yWindow="276" windowWidth="22632" windowHeight="12060" xr2:uid="{52A536DC-50C4-426B-A61C-53141CE1D792}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>basicao</t>
+  </si>
+  <si>
+    <t>Métricas</t>
+  </si>
+  <si>
+    <t>Médias</t>
+  </si>
+  <si>
+    <t>Maior nota</t>
+  </si>
+  <si>
+    <t>Menor nota</t>
+  </si>
+  <si>
+    <t>Entendimento das regras</t>
+  </si>
+  <si>
+    <t>Interações entre jogadores</t>
+  </si>
+  <si>
+    <t>Tempo de jogo</t>
+  </si>
+  <si>
+    <t>Aderência a temática</t>
+  </si>
+  <si>
+    <t>Estratégia</t>
+  </si>
+  <si>
+    <t>Sorte</t>
+  </si>
+  <si>
+    <t>Balanço de Jogo</t>
+  </si>
+  <si>
+    <t>Diversão</t>
   </si>
 </sst>
 </file>
@@ -74,8 +110,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1423,6 +1462,715 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Análise dos feedbacks</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Médias</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$A$32:$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Entendimento das regras</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Interações entre jogadores</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tempo de jogo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Aderência a temática</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Estratégia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sorte</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Balanço de Jogo</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Diversão</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$B$32:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9FC6-410E-A265-FBA12BFF1085}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$C$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Maior nota</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$A$32:$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Entendimento das regras</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Interações entre jogadores</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tempo de jogo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Aderência a temática</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Estratégia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sorte</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Balanço de Jogo</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Diversão</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$C$32:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9FC6-410E-A265-FBA12BFF1085}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$D$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Menor nota</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$A$32:$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Entendimento das regras</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Interações entre jogadores</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tempo de jogo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Aderência a temática</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Estratégia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sorte</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Balanço de Jogo</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Diversão</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$D$32:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9FC6-410E-A265-FBA12BFF1085}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="305969648"/>
+        <c:axId val="305972528"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="305969648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="305972528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="305972528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="305969648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1503,6 +2251,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
   <cs:axisTitle>
@@ -2473,6 +3261,530 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2612,6 +3924,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>263641</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>323966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69F95ABE-44CE-E9B6-DF0B-1517D9539CEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2937,10 +4285,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C0CF41-4718-4E9A-A17B-7B52C40091D7}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
+      <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3015,6 +4363,132 @@
         <v>0.52580400000000005</v>
       </c>
     </row>
+    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1">
+        <v>7.45</v>
+      </c>
+      <c r="C32" s="1">
+        <v>10</v>
+      </c>
+      <c r="D32" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="C33" s="1">
+        <v>10</v>
+      </c>
+      <c r="D33" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="1">
+        <v>7.45</v>
+      </c>
+      <c r="C34" s="1">
+        <v>10</v>
+      </c>
+      <c r="D34" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="1">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="C35" s="1">
+        <v>10</v>
+      </c>
+      <c r="D35" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="1">
+        <v>7.09</v>
+      </c>
+      <c r="C36" s="1">
+        <v>10</v>
+      </c>
+      <c r="D36" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="1">
+        <v>7.54</v>
+      </c>
+      <c r="C37" s="1">
+        <v>10</v>
+      </c>
+      <c r="D37" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="1">
+        <v>9.27</v>
+      </c>
+      <c r="C38" s="1">
+        <v>10</v>
+      </c>
+      <c r="D38" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="1">
+        <v>8.27</v>
+      </c>
+      <c r="C39" s="1">
+        <v>10</v>
+      </c>
+      <c r="D39" s="1">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
